--- a/docs/WBS_Group7_ServiceChargeApp_20230204.xlsx
+++ b/docs/WBS_Group7_ServiceChargeApp_20230204.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STARGAZE\Documents\Alliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\db2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF1B558-B84A-433E-AAEE-954EBFDF0E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>GROUP 7</t>
   </si>
@@ -197,15 +196,6 @@
   </si>
   <si>
     <t>Add</t>
-  </si>
-  <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
   </si>
   <si>
     <t>WBS</t>
@@ -256,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +321,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -657,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,21 +676,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,6 +715,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -808,46 +805,58 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,428 +1133,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H20" sqref="H20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="31" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="34" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="40" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="45" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="45" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1567,7 +1576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1577,906 +1586,746 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="58" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59" t="s">
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59" t="s">
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="59"/>
+      <c r="U4" s="60"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51">
+        <v>44961</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="61">
-        <v>44961</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="55"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="50"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="57"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="57"/>
+      <c r="U8" s="50"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="19"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="55"/>
-      <c r="P9" s="57"/>
+      <c r="P9" s="50"/>
       <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="50"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="19"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="54"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="55"/>
-      <c r="P10" s="57"/>
+      <c r="P10" s="50"/>
       <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="57"/>
+      <c r="U10" s="50"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="19"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="54"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="55"/>
-      <c r="P11" s="57"/>
+      <c r="P11" s="50"/>
       <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="50"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="19"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="54"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="55"/>
-      <c r="P12" s="57"/>
+      <c r="P12" s="50"/>
       <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="57"/>
+      <c r="U12" s="50"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="19"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="54"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="55"/>
-      <c r="P13" s="57"/>
+      <c r="P13" s="50"/>
       <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="50"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="57"/>
+      <c r="U13" s="50"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="19"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="55"/>
-      <c r="P14" s="57"/>
+      <c r="P14" s="50"/>
       <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="50"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="19"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="55"/>
-      <c r="P15" s="57"/>
+      <c r="P15" s="50"/>
       <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="50"/>
       <c r="T15" s="55"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="50"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="19"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="55"/>
-      <c r="P16" s="57"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
       <c r="T16" s="55"/>
-      <c r="U16" s="57"/>
+      <c r="U16" s="50"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="19"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="55"/>
-      <c r="P17" s="57"/>
+      <c r="P17" s="50"/>
       <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="50"/>
       <c r="T17" s="55"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="50"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="19"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="55"/>
-      <c r="P18" s="57"/>
+      <c r="P18" s="50"/>
       <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="57"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
       <c r="T18" s="55"/>
-      <c r="U18" s="57"/>
+      <c r="U18" s="50"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="19"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
       <c r="O19" s="55"/>
-      <c r="P19" s="57"/>
+      <c r="P19" s="50"/>
       <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="50"/>
       <c r="T19" s="55"/>
-      <c r="U19" s="57"/>
+      <c r="U19" s="50"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="19"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="55"/>
-      <c r="P20" s="57"/>
+      <c r="P20" s="50"/>
       <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="57"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="50"/>
       <c r="T20" s="55"/>
-      <c r="U20" s="57"/>
+      <c r="U20" s="50"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="19"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="55"/>
-      <c r="P21" s="57"/>
+      <c r="P21" s="50"/>
       <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50"/>
       <c r="T21" s="55"/>
-      <c r="U21" s="57"/>
+      <c r="U21" s="50"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="19"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="55"/>
-      <c r="P22" s="57"/>
+      <c r="P22" s="50"/>
       <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="57"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="50"/>
       <c r="T22" s="55"/>
-      <c r="U22" s="57"/>
+      <c r="U22" s="50"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="19"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="55"/>
-      <c r="P23" s="57"/>
+      <c r="P23" s="50"/>
       <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="50"/>
       <c r="T23" s="55"/>
-      <c r="U23" s="57"/>
+      <c r="U23" s="50"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="19"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
       <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="55"/>
-      <c r="P24" s="57"/>
+      <c r="P24" s="50"/>
       <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="57"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="50"/>
       <c r="T24" s="55"/>
-      <c r="U24" s="57"/>
+      <c r="U24" s="50"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="19"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="54"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="57"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
       <c r="O25" s="55"/>
-      <c r="P25" s="57"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="50"/>
       <c r="T25" s="55"/>
-      <c r="U25" s="57"/>
+      <c r="U25" s="50"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="19"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="54"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
       <c r="O26" s="55"/>
-      <c r="P26" s="57"/>
+      <c r="P26" s="50"/>
       <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="57"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
       <c r="T26" s="55"/>
-      <c r="U26" s="57"/>
+      <c r="U26" s="50"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="19"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="54"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
       <c r="O27" s="55"/>
-      <c r="P27" s="57"/>
+      <c r="P27" s="50"/>
       <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="57"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="50"/>
       <c r="T27" s="55"/>
-      <c r="U27" s="57"/>
+      <c r="U27" s="50"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="19"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
       <c r="O28" s="55"/>
-      <c r="P28" s="57"/>
+      <c r="P28" s="50"/>
       <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="57"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="50"/>
       <c r="T28" s="55"/>
-      <c r="U28" s="57"/>
+      <c r="U28" s="50"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="19"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="54"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
       <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
       <c r="O29" s="55"/>
-      <c r="P29" s="57"/>
+      <c r="P29" s="50"/>
       <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="57"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="50"/>
       <c r="T29" s="55"/>
-      <c r="U29" s="57"/>
+      <c r="U29" s="50"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="19"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="54"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
       <c r="O30" s="55"/>
-      <c r="P30" s="57"/>
+      <c r="P30" s="50"/>
       <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="57"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="50"/>
       <c r="T30" s="55"/>
-      <c r="U30" s="57"/>
+      <c r="U30" s="50"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="19"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="54"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
       <c r="L31" s="55"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
       <c r="O31" s="55"/>
-      <c r="P31" s="57"/>
+      <c r="P31" s="50"/>
       <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="57"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="50"/>
       <c r="T31" s="55"/>
-      <c r="U31" s="57"/>
+      <c r="U31" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:U28"/>
     <mergeCell ref="A1:U3"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:F31"/>
@@ -2501,17 +2350,177 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2519,541 +2528,541 @@
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="68.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="7" width="11" style="10" customWidth="1"/>
+    <col min="4" max="7" width="11" style="7" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="I2" s="59" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="I2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3069,11 +3078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3082,7 +3091,7 @@
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" style="1" customWidth="1"/>
@@ -3093,343 +3102,537 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="E2" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="E6" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="E8" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="E10" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>11</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="E12" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>13</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="E14" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>14</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>15</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="E16" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="4:11">
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>16</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="4:11">
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>17</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="E18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="4:11">
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>18</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="4:11">
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>19</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="E20" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>20</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="E21" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>21</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>22</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="E23" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="4:11">
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>23</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="4:11">
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>24</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="E25" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="4:11">
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>25</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="4:11">
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>26</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="E27" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="4:11">
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>27</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="4:11">
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>28</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="4:11">
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>29</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="4:11">
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>30</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="4:11">
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>31</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="4:11">
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>32</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="E33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="D34" s="6">
+        <v>33</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35" s="6">
+        <v>34</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36" s="6">
+        <v>35</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37" s="6">
+        <v>36</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/WBS_Group7_ServiceChargeApp_20230204.xlsx
+++ b/docs/WBS_Group7_ServiceChargeApp_20230204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STARGAZE\Documents\Alliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STARGAZE\Documents\Alliance\Code Files\ServiceChargeApp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF1B558-B84A-433E-AAEE-954EBFDF0E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A7CB0-5D43-4170-AA42-3F2054667EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4440" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>GROUP 7</t>
   </si>
@@ -199,15 +199,6 @@
     <t>Add</t>
   </si>
   <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
     <t>WBS</t>
   </si>
   <si>
@@ -251,6 +242,9 @@
   </si>
   <si>
     <t>Cathleen Rose Gadiane</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -721,6 +715,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -808,47 +805,44 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:M20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1191,18 +1185,18 @@
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
@@ -1211,16 +1205,16 @@
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
@@ -1229,16 +1223,16 @@
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
@@ -1247,16 +1241,16 @@
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
@@ -1265,18 +1259,18 @@
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -1285,16 +1279,16 @@
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
@@ -1303,16 +1297,16 @@
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
@@ -1321,16 +1315,16 @@
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
@@ -1339,18 +1333,18 @@
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
@@ -1359,16 +1353,16 @@
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
@@ -1377,16 +1371,16 @@
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
@@ -1395,16 +1389,16 @@
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
@@ -1467,20 +1461,20 @@
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
@@ -1489,20 +1483,20 @@
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -1511,18 +1505,18 @@
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="49"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
@@ -1531,18 +1525,18 @@
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
@@ -1577,906 +1571,746 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="58" t="s">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59" t="s">
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59" t="s">
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="59"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54">
+        <v>44961</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="61">
-        <v>44961</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="53"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="19"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="53"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="19"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="53"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="19"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="53"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="19"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="53"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="19"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="53"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="19"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="53"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="19"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="53"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="19"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="57"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="53"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="19"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="57"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="53"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="19"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="57"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="53"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="19"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="53"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="19"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="57"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="53"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="19"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="57"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="53"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="19"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="57"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="53"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="19"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="57"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="53"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="19"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="57"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="53"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="19"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="57"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="53"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="19"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="57"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="53"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="19"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="57"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="19"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="57"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="53"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="19"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="53"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="19"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="57"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="53"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="19"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="57"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="53"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="19"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="57"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:U28"/>
     <mergeCell ref="A1:U3"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="E31:F31"/>
@@ -2501,6 +2335,166 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2511,7 +2505,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2525,32 +2519,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="I2" s="59" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="I2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
@@ -2563,8 +2557,8 @@
       <c r="G3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
@@ -3070,19 +3064,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" style="1" customWidth="1"/>
@@ -3093,53 +3087,49 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -3148,16 +3138,26 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11">
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -3166,16 +3166,23 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="D6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -3187,13 +3194,20 @@
       <c r="D7" s="7">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D8" s="7">
         <v>7</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -3202,16 +3216,26 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11">
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D10" s="7">
         <v>9</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -3220,16 +3244,26 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11">
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" s="7">
         <v>11</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -3241,13 +3275,17 @@
       <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="D14" s="7">
         <v>13</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -3259,13 +3297,17 @@
       <c r="D15" s="7">
         <v>14</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="D16" s="7">
         <v>15</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3273,17 +3315,24 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="3:11">
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="7">
         <v>16</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="4:11">
+      <c r="E17" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="D18" s="7">
         <v>17</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -3291,17 +3340,27 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="3:11">
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D19" s="7">
         <v>18</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="4:11">
+      <c r="E19" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D20" s="7">
         <v>19</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -3309,11 +3368,13 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="4:11">
+    <row r="21" spans="3:11">
       <c r="D21" s="7">
         <v>20</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -3321,17 +3382,21 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="4:11">
+    <row r="22" spans="3:11">
       <c r="D22" s="7">
         <v>21</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="4:11">
+      <c r="E22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
       <c r="D23" s="7">
         <v>22</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -3339,17 +3404,24 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="3:11">
       <c r="D24" s="7">
         <v>23</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="4:11">
+      <c r="E24" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" s="7">
         <v>24</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -3357,17 +3429,24 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="3:11">
       <c r="D26" s="7">
         <v>25</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="4:11">
+      <c r="E26" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D27" s="7">
         <v>26</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -3375,17 +3454,24 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="4:11">
+    <row r="28" spans="3:11">
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="7">
         <v>27</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="4:11">
+      <c r="E28" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
       <c r="D29" s="7">
         <v>28</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -3393,17 +3479,27 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="4:11">
+    <row r="30" spans="3:11">
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D30" s="7">
         <v>29</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="4:11">
+      <c r="E30" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D31" s="7">
         <v>30</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -3411,17 +3507,27 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="4:11">
+    <row r="32" spans="3:11">
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D32" s="7">
         <v>31</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="4:11">
+      <c r="E32" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D33" s="7">
         <v>32</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -3429,6 +3535,9 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
